--- a/src/produktaNissan/cars.xlsx
+++ b/src/produktaNissan/cars.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>Vehicle_Name</t>
   </si>
@@ -74,18 +74,6 @@
     <t>R 689 900</t>
   </si>
   <si>
-    <t>Volkswagen Polo Vivo 1.4 Trendline 5-dr</t>
-  </si>
-  <si>
-    <t>UA7548</t>
-  </si>
-  <si>
-    <t>37 000 Km</t>
-  </si>
-  <si>
-    <t>R 229 900</t>
-  </si>
-  <si>
     <t>Hyundai Creta 1.6 Executive</t>
   </si>
   <si>
@@ -134,48 +122,6 @@
     <t>R 329 900</t>
   </si>
   <si>
-    <t>Land Rover Discovery Sport 2.0D HSE R-Dynamic | D180</t>
-  </si>
-  <si>
-    <t>UA7586</t>
-  </si>
-  <si>
-    <t>99 000 Km</t>
-  </si>
-  <si>
-    <t>R 699 900</t>
-  </si>
-  <si>
-    <t>Hyundai Venue 1.0 TGDi Fluid Auto</t>
-  </si>
-  <si>
-    <t>UA7502</t>
-  </si>
-  <si>
-    <t>151 000 Km</t>
-  </si>
-  <si>
-    <t>Ford Ranger 2.0D Bi-Turbo Wildtrak Auto Double-Cab</t>
-  </si>
-  <si>
-    <t>UA7580</t>
-  </si>
-  <si>
-    <t>65 000 Km</t>
-  </si>
-  <si>
-    <t>Mercedes-Benz GLA 220 CDI Auto 4Matic</t>
-  </si>
-  <si>
-    <t>UA7592</t>
-  </si>
-  <si>
-    <t>162 500 Km</t>
-  </si>
-  <si>
-    <t>R 279 900</t>
-  </si>
-  <si>
     <t>Honda HR-V 1.5 Comfort Auto</t>
   </si>
   <si>
@@ -188,18 +134,6 @@
     <t>R 259 900</t>
   </si>
   <si>
-    <t>Volkswagen Taigo 1.0 TSI Style Auto</t>
-  </si>
-  <si>
-    <t>UA7559</t>
-  </si>
-  <si>
-    <t>14 600 Km</t>
-  </si>
-  <si>
-    <t>R 449 900</t>
-  </si>
-  <si>
     <t>Suzuki Ignis 1.2 GLX</t>
   </si>
   <si>
@@ -245,37 +179,16 @@
     <t>43 100 Km</t>
   </si>
   <si>
-    <t>Nissan Magnite 1.0T Visia</t>
-  </si>
-  <si>
-    <t>UA7372</t>
-  </si>
-  <si>
-    <t>17 615 Km</t>
-  </si>
-  <si>
-    <t>R 249 900</t>
-  </si>
-  <si>
-    <t>Renault Captur 1.5 dCi Dynamique 5-dr (66kW)</t>
-  </si>
-  <si>
-    <t>UA7485</t>
-  </si>
-  <si>
-    <t>110 500 Km</t>
+    <t>Renault Clio IV 900T Authentique 5-dr (66kW)</t>
+  </si>
+  <si>
+    <t>UA7458</t>
+  </si>
+  <si>
+    <t>66 000 Km</t>
   </si>
   <si>
     <t>R 164 900</t>
-  </si>
-  <si>
-    <t>Renault Clio IV 900T Authentique 5-dr (66kW)</t>
-  </si>
-  <si>
-    <t>UA7458</t>
-  </si>
-  <si>
-    <t>66 000 Km</t>
   </si>
 </sst>
 </file>
@@ -326,7 +239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -429,7 +342,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>9970601.0</v>
+        <v>9968275.0</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -438,7 +351,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>2023.0</v>
+        <v>2017.0</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -452,7 +365,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>9968275.0</v>
+        <v>9963759.0</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -461,7 +374,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="F6" t="s">
         <v>26</v>
@@ -475,7 +388,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="n">
-        <v>9963759.0</v>
+        <v>9963060.0</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -484,7 +397,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>2016.0</v>
+        <v>2022.0</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
@@ -498,7 +411,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="n">
-        <v>9963060.0</v>
+        <v>9962823.0</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -507,7 +420,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>2022.0</v>
+        <v>2020.0</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -521,7 +434,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="n">
-        <v>9962823.0</v>
+        <v>9921198.0</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -530,7 +443,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>2020.0</v>
+        <v>2019.0</v>
       </c>
       <c r="F9" t="s">
         <v>38</v>
@@ -544,7 +457,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>9949492.0</v>
+        <v>9921070.0</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
@@ -553,7 +466,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>2020.0</v>
+        <v>2021.0</v>
       </c>
       <c r="F10" t="s">
         <v>42</v>
@@ -567,7 +480,7 @@
         <v>44</v>
       </c>
       <c r="B11" t="n">
-        <v>9947634.0</v>
+        <v>9920895.0</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
@@ -576,266 +489,82 @@
         <v>9</v>
       </c>
       <c r="E11" t="n">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
       <c r="F11" t="s">
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" t="n">
-        <v>9946647.0</v>
+        <v>9919830.0</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>2020.0</v>
+        <v>2019.0</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" t="n">
-        <v>9944574.0</v>
+        <v>9919651.0</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>2015.0</v>
+        <v>2021.0</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" t="n">
-        <v>9921198.0</v>
+        <v>9613199.0</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>2019.0</v>
+        <v>2020.0</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
         <v>58</v>
-      </c>
-      <c r="B15" t="n">
-        <v>9921188.0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2024.0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" t="n">
-        <v>9921070.0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2021.0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" t="n">
-        <v>9920895.0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" t="n">
-        <v>9919830.0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2019.0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" t="n">
-        <v>9919651.0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2021.0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" t="n">
-        <v>9919642.0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2024.0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" t="n">
-        <v>9668725.0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2018.0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" t="n">
-        <v>9613199.0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2020.0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/src/produktaNissan/cars.xlsx
+++ b/src/produktaNissan/cars.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>Vehicle_Name</t>
   </si>
@@ -35,33 +35,75 @@
     <t>Price</t>
   </si>
   <si>
+    <t>Nissan Navara 2.5 dCi LE 4x4 Auto Double-Cab</t>
+  </si>
+  <si>
+    <t>UA7615</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>251 500 Km</t>
+  </si>
+  <si>
+    <t>R 229 900</t>
+  </si>
+  <si>
+    <t>Volkswagen Kombi 2.0 TDI (75kW) Base</t>
+  </si>
+  <si>
+    <t>UA7608</t>
+  </si>
+  <si>
+    <t>156 500 Km</t>
+  </si>
+  <si>
+    <t>R 309 900</t>
+  </si>
+  <si>
+    <t>Volkswagen Golf VII 1.0 TSI Comfortline</t>
+  </si>
+  <si>
+    <t>UA7610</t>
+  </si>
+  <si>
+    <t>162 000 Km</t>
+  </si>
+  <si>
+    <t>R 249 900</t>
+  </si>
+  <si>
+    <t>Nissan NP200 1.6</t>
+  </si>
+  <si>
+    <t>UA7607</t>
+  </si>
+  <si>
+    <t>12 500 Km</t>
+  </si>
+  <si>
+    <t>Volkswagen Polo Vivo 1.6 Comfortline Auto 5-dr</t>
+  </si>
+  <si>
+    <t>UA7604</t>
+  </si>
+  <si>
+    <t>65 500 Km</t>
+  </si>
+  <si>
     <t>Ford Ranger 3.2 TDCi Wildtrak Auto Double-Cab</t>
   </si>
   <si>
     <t>UA7597</t>
   </si>
   <si>
-    <t>Used</t>
-  </si>
-  <si>
     <t>105 000 Km</t>
   </si>
   <si>
     <t>R 439 900</t>
   </si>
   <si>
-    <t>Nissan Patrol 5.6 V8 LE Premium</t>
-  </si>
-  <si>
-    <t>UA7602</t>
-  </si>
-  <si>
-    <t>12 000 Km</t>
-  </si>
-  <si>
-    <t>R 1 160 000</t>
-  </si>
-  <si>
     <t>Isuzu D-Max 3.0 DDI LSE 4x4 Auto Double-Cab</t>
   </si>
   <si>
@@ -74,30 +116,6 @@
     <t>R 689 900</t>
   </si>
   <si>
-    <t>Hyundai Creta 1.6 Executive</t>
-  </si>
-  <si>
-    <t>UA7594</t>
-  </si>
-  <si>
-    <t>133 500 Km</t>
-  </si>
-  <si>
-    <t>R 219 900</t>
-  </si>
-  <si>
-    <t>Toyota Fortuner 2.8 GD-6 4x4 Auto</t>
-  </si>
-  <si>
-    <t>UA7589</t>
-  </si>
-  <si>
-    <t>198 000 Km</t>
-  </si>
-  <si>
-    <t>R 399 900</t>
-  </si>
-  <si>
     <t>Nissan Navara 2.5 DDTi LE Auto Double-Cab</t>
   </si>
   <si>
@@ -134,49 +152,28 @@
     <t>R 259 900</t>
   </si>
   <si>
-    <t>Suzuki Ignis 1.2 GLX</t>
-  </si>
-  <si>
-    <t>UA7566</t>
-  </si>
-  <si>
-    <t>42 300 Km</t>
+    <t>Nissan Micra 900T Acenta Plus</t>
+  </si>
+  <si>
+    <t>UA7505</t>
+  </si>
+  <si>
+    <t>118 000 Km</t>
+  </si>
+  <si>
+    <t>R 174 900</t>
+  </si>
+  <si>
+    <t>Nissan Micra 900T Visia</t>
+  </si>
+  <si>
+    <t>UA7468</t>
+  </si>
+  <si>
+    <t>43 100 Km</t>
   </si>
   <si>
     <t>R 199 900</t>
-  </si>
-  <si>
-    <t>Nissan Terra 2.5D XE Auto</t>
-  </si>
-  <si>
-    <t>UA7540</t>
-  </si>
-  <si>
-    <t>137 000 Km</t>
-  </si>
-  <si>
-    <t>R 389 900</t>
-  </si>
-  <si>
-    <t>Nissan Micra 900T Acenta Plus</t>
-  </si>
-  <si>
-    <t>UA7505</t>
-  </si>
-  <si>
-    <t>118 000 Km</t>
-  </si>
-  <si>
-    <t>R 174 900</t>
-  </si>
-  <si>
-    <t>Nissan Micra 900T Visia</t>
-  </si>
-  <si>
-    <t>UA7468</t>
-  </si>
-  <si>
-    <t>43 100 Km</t>
   </si>
   <si>
     <t>Renault Clio IV 900T Authentique 5-dr (66kW)</t>
@@ -273,7 +270,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>9985991.0</v>
+        <v>1.0050495E7</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -282,7 +279,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>2020.0</v>
+        <v>2013.0</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -296,7 +293,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>9982494.0</v>
+        <v>1.0021558E7</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -305,7 +302,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>2021.0</v>
+        <v>2015.0</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -319,7 +316,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>9979391.0</v>
+        <v>1.0020961E7</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -328,7 +325,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>2023.0</v>
+        <v>2017.0</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -342,7 +339,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>9968275.0</v>
+        <v>1.0012602E7</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -351,162 +348,162 @@
         <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>2017.0</v>
+        <v>2023.0</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.0002369E7</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="n">
-        <v>9963759.0</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2021.0</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2016.0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9985991.0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2020.0</v>
+      </c>
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="n">
-        <v>9963060.0</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9979391.0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="n">
-        <v>9962823.0</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="G8" t="s">
         <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2020.0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9963060.0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="n">
-        <v>9921198.0</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="G9" t="s">
         <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2019.0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9962823.0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2020.0</v>
+      </c>
+      <c r="F10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="n">
-        <v>9921070.0</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="G10" t="s">
         <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2021.0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9921198.0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2019.0</v>
+      </c>
+      <c r="F11" t="s">
         <v>44</v>
       </c>
-      <c r="B11" t="n">
-        <v>9920895.0</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="G11" t="s">
         <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n">
         <v>9919830.0</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -515,21 +512,21 @@
         <v>2019.0</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" t="n">
         <v>9919651.0</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -538,21 +535,21 @@
         <v>2021.0</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" t="n">
         <v>9613199.0</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -561,10 +558,10 @@
         <v>2020.0</v>
       </c>
       <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
         <v>57</v>
-      </c>
-      <c r="G14" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/src/produktaNissan/cars.xlsx
+++ b/src/produktaNissan/cars.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>Vehicle_Name</t>
   </si>
@@ -35,54 +35,147 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Nissan Navara 2.5 dCi LE 4x4 Auto Double-Cab</t>
-  </si>
-  <si>
-    <t>UA7615</t>
+    <t>Toyota Land Cruiser 300 V6 3.3 D GX-R</t>
+  </si>
+  <si>
+    <t>UA</t>
   </si>
   <si>
     <t>Used</t>
   </si>
   <si>
-    <t>251 500 Km</t>
+    <t>54 000 Km</t>
+  </si>
+  <si>
+    <t>R 1 350 000</t>
+  </si>
+  <si>
+    <t>Renault Sandero 900T Stepway Expression</t>
+  </si>
+  <si>
+    <t>UA7644</t>
+  </si>
+  <si>
+    <t>108 000 Km</t>
+  </si>
+  <si>
+    <t>R 189 900</t>
+  </si>
+  <si>
+    <t>Toyota Hilux 2.8 GD-6 Raider 4x4 Double-Cab</t>
+  </si>
+  <si>
+    <t>UA7640</t>
+  </si>
+  <si>
+    <t>128 500 Km</t>
+  </si>
+  <si>
+    <t>R 559 900</t>
+  </si>
+  <si>
+    <t>Honda CR-V 2.0 Comfort Auto</t>
+  </si>
+  <si>
+    <t>UA7633</t>
+  </si>
+  <si>
+    <t>177 000 Km</t>
+  </si>
+  <si>
+    <t>R 269 900</t>
+  </si>
+  <si>
+    <t>Nissan Navara 2.5 DDTi PRO-2X Auto Double-Cab</t>
+  </si>
+  <si>
+    <t>UA7651</t>
+  </si>
+  <si>
+    <t>30 000 Km</t>
+  </si>
+  <si>
+    <t>R 599 900</t>
+  </si>
+  <si>
+    <t>Nissan Navara 2.5 DDTi PRO-4X 4X4 Auto Double-Cab</t>
+  </si>
+  <si>
+    <t>UA7642</t>
+  </si>
+  <si>
+    <t>45 000 Km</t>
+  </si>
+  <si>
+    <t>R 629 900</t>
+  </si>
+  <si>
+    <t>UA7647</t>
+  </si>
+  <si>
+    <t>47 500 Km</t>
+  </si>
+  <si>
+    <t>R 639 900</t>
+  </si>
+  <si>
+    <t>Isuzu D-Max 1.9 DDI L 4x4 Double-Cab</t>
+  </si>
+  <si>
+    <t>UA7649</t>
+  </si>
+  <si>
+    <t>24 000 Km</t>
+  </si>
+  <si>
+    <t>R 449 900</t>
+  </si>
+  <si>
+    <t>Nissan Magnite 1.0 Acenta AMT</t>
+  </si>
+  <si>
+    <t>UA7614</t>
+  </si>
+  <si>
+    <t>25 500 Km</t>
+  </si>
+  <si>
+    <t>R 259 900</t>
+  </si>
+  <si>
+    <t>Mazda 2 1.5 Active 5-dr</t>
+  </si>
+  <si>
+    <t>UA7630</t>
+  </si>
+  <si>
+    <t>110 000 Km</t>
+  </si>
+  <si>
+    <t>Volkswagen Golf VII 1.0 TSI Comfortline</t>
+  </si>
+  <si>
+    <t>UA7610</t>
+  </si>
+  <si>
+    <t>162 000 Km</t>
   </si>
   <si>
     <t>R 229 900</t>
   </si>
   <si>
-    <t>Volkswagen Kombi 2.0 TDI (75kW) Base</t>
-  </si>
-  <si>
-    <t>UA7608</t>
-  </si>
-  <si>
-    <t>156 500 Km</t>
-  </si>
-  <si>
-    <t>R 309 900</t>
-  </si>
-  <si>
-    <t>Volkswagen Golf VII 1.0 TSI Comfortline</t>
-  </si>
-  <si>
-    <t>UA7610</t>
-  </si>
-  <si>
-    <t>162 000 Km</t>
+    <t>Nissan NP200 1.6</t>
+  </si>
+  <si>
+    <t>UA7607</t>
+  </si>
+  <si>
+    <t>12 500 Km</t>
   </si>
   <si>
     <t>R 249 900</t>
   </si>
   <si>
-    <t>Nissan NP200 1.6</t>
-  </si>
-  <si>
-    <t>UA7607</t>
-  </si>
-  <si>
-    <t>12 500 Km</t>
-  </si>
-  <si>
     <t>Volkswagen Polo Vivo 1.6 Comfortline Auto 5-dr</t>
   </si>
   <si>
@@ -92,30 +185,6 @@
     <t>65 500 Km</t>
   </si>
   <si>
-    <t>Ford Ranger 3.2 TDCi Wildtrak Auto Double-Cab</t>
-  </si>
-  <si>
-    <t>UA7597</t>
-  </si>
-  <si>
-    <t>105 000 Km</t>
-  </si>
-  <si>
-    <t>R 439 900</t>
-  </si>
-  <si>
-    <t>Isuzu D-Max 3.0 DDI LSE 4x4 Auto Double-Cab</t>
-  </si>
-  <si>
-    <t>UA7600</t>
-  </si>
-  <si>
-    <t>60 500 Km</t>
-  </si>
-  <si>
-    <t>R 689 900</t>
-  </si>
-  <si>
     <t>Nissan Navara 2.5 DDTi LE Auto Double-Cab</t>
   </si>
   <si>
@@ -125,67 +194,7 @@
     <t>87 000 Km</t>
   </si>
   <si>
-    <t>R 489 900</t>
-  </si>
-  <si>
-    <t>Nissan X-Trail 1.6 dCi Visia 7-seat</t>
-  </si>
-  <si>
-    <t>UA7531</t>
-  </si>
-  <si>
-    <t>75 000 Km</t>
-  </si>
-  <si>
-    <t>R 329 900</t>
-  </si>
-  <si>
-    <t>Honda HR-V 1.5 Comfort Auto</t>
-  </si>
-  <si>
-    <t>UA7491</t>
-  </si>
-  <si>
-    <t>83 400 Km</t>
-  </si>
-  <si>
-    <t>R 259 900</t>
-  </si>
-  <si>
-    <t>Nissan Micra 900T Acenta Plus</t>
-  </si>
-  <si>
-    <t>UA7505</t>
-  </si>
-  <si>
-    <t>118 000 Km</t>
-  </si>
-  <si>
-    <t>R 174 900</t>
-  </si>
-  <si>
-    <t>Nissan Micra 900T Visia</t>
-  </si>
-  <si>
-    <t>UA7468</t>
-  </si>
-  <si>
-    <t>43 100 Km</t>
-  </si>
-  <si>
-    <t>R 199 900</t>
-  </si>
-  <si>
-    <t>Renault Clio IV 900T Authentique 5-dr (66kW)</t>
-  </si>
-  <si>
-    <t>UA7458</t>
-  </si>
-  <si>
-    <t>66 000 Km</t>
-  </si>
-  <si>
-    <t>R 164 900</t>
+    <t>R 479 900</t>
   </si>
 </sst>
 </file>
@@ -236,7 +245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -270,7 +279,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0050495E7</v>
+        <v>1.0112215E7</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -279,7 +288,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>2013.0</v>
+        <v>2022.0</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -293,7 +302,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0021558E7</v>
+        <v>1.0112191E7</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -302,7 +311,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>2015.0</v>
+        <v>2020.0</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -316,7 +325,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0020961E7</v>
+        <v>1.0111985E7</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -325,7 +334,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -339,7 +348,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>1.0012602E7</v>
+        <v>1.0106171E7</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -348,70 +357,70 @@
         <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>2023.0</v>
+        <v>2018.0</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>1.0002369E7</v>
+        <v>1.0105226E7</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>2021.0</v>
+        <v>2024.0</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" t="n">
-        <v>9985991.0</v>
+        <v>1.0104794E7</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>2020.0</v>
+        <v>2023.0</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>9979391.0</v>
+        <v>1.0104368E7</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -420,21 +429,21 @@
         <v>2023.0</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>9963060.0</v>
+        <v>1.0101834E7</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -443,44 +452,44 @@
         <v>2022.0</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="n">
-        <v>9962823.0</v>
+        <v>1.008631E7</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>2020.0</v>
+        <v>2024.0</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="n">
-        <v>9921198.0</v>
+        <v>1.0078068E7</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -489,10 +498,10 @@
         <v>2019.0</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -500,7 +509,7 @@
         <v>46</v>
       </c>
       <c r="B12" t="n">
-        <v>9919830.0</v>
+        <v>1.0020961E7</v>
       </c>
       <c r="C12" t="s">
         <v>47</v>
@@ -509,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>2019.0</v>
+        <v>2017.0</v>
       </c>
       <c r="F12" t="s">
         <v>48</v>
@@ -523,7 +532,7 @@
         <v>50</v>
       </c>
       <c r="B13" t="n">
-        <v>9919651.0</v>
+        <v>1.0012602E7</v>
       </c>
       <c r="C13" t="s">
         <v>51</v>
@@ -532,7 +541,7 @@
         <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>2021.0</v>
+        <v>2023.0</v>
       </c>
       <c r="F13" t="s">
         <v>52</v>
@@ -546,7 +555,7 @@
         <v>54</v>
       </c>
       <c r="B14" t="n">
-        <v>9613199.0</v>
+        <v>1.0002369E7</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
@@ -555,13 +564,36 @@
         <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>2020.0</v>
+        <v>2021.0</v>
       </c>
       <c r="F14" t="s">
         <v>56</v>
       </c>
       <c r="G14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
         <v>57</v>
+      </c>
+      <c r="B15" t="n">
+        <v>9963060.0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
